--- a/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -634,13 +634,13 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -655,10 +655,10 @@
         <v>2.69</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2">
         <v>1.49</v>
@@ -741,13 +741,13 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="H3">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J3">
         <v>1.11</v>
@@ -756,10 +756,10 @@
         <v>6.6</v>
       </c>
       <c r="L3">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
         <v>2.7</v>

--- a/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -634,13 +634,13 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="I2">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -655,10 +655,10 @@
         <v>2.69</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2">
         <v>1.49</v>
@@ -741,13 +741,13 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <v>3.11</v>
+        <v>2.88</v>
       </c>
       <c r="H3">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="I3">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
         <v>1.11</v>
@@ -756,10 +756,10 @@
         <v>6.6</v>
       </c>
       <c r="L3">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
         <v>2.7</v>

--- a/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -634,13 +634,13 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3.79</v>
+        <v>3.46</v>
       </c>
       <c r="H2">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
       <c r="I2">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -655,10 +655,10 @@
         <v>2.69</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P2">
         <v>1.49</v>
@@ -741,13 +741,13 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <v>2.88</v>
+        <v>7.56</v>
       </c>
       <c r="H3">
-        <v>2.58</v>
+        <v>7.48</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="J3">
         <v>1.11</v>
@@ -759,10 +759,10 @@
         <v>1.51</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="N3">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="O3">
         <v>1.42</v>
